--- a/WebsiteTest/TestData/TestData.xlsx
+++ b/WebsiteTest/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="MasterData" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
     <t>usertest01</t>
   </si>
   <si>
-    <t>test001</t>
+    <t>test002</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/WebsiteTest/TestData/TestData.xlsx
+++ b/WebsiteTest/TestData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Execution Flag</t>
   </si>
@@ -66,20 +66,17 @@
     <t>http://abhinas-001-site1.1tempurl.com/login.php</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>usertest01</t>
   </si>
   <si>
-    <t>test002</t>
+    <t>test003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,13 +94,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -138,11 +128,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -448,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -462,7 +451,7 @@
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -476,7 +465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -490,7 +479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -502,22 +491,12 @@
       </c>
       <c r="D3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="Q5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="Q6" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>$Q$5:$Q$6</formula1>
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -530,7 +509,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,7 +534,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -601,7 +580,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>

--- a/WebsiteTest/TestData/TestData.xlsx
+++ b/WebsiteTest/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MasterData" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
     <t>usertest01</t>
   </si>
   <si>
-    <t>test003</t>
+    <t>test004</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/WebsiteTest/TestData/TestData.xlsx
+++ b/WebsiteTest/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="MasterData" sheetId="1" r:id="rId1"/>
@@ -45,12 +45,6 @@
     <t>Login</t>
   </si>
   <si>
-    <t>This scenario registers a user and verifies that the new user is entered in the database</t>
-  </si>
-  <si>
-    <t>This scenario verifies the login process for a user</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
@@ -70,6 +64,12 @@
   </si>
   <si>
     <t>test004</t>
+  </si>
+  <si>
+    <t>This scenario verifies the login process for a user.</t>
+  </si>
+  <si>
+    <t>This scenario registers a user and verifies that the new user is entered in the database.</t>
   </si>
 </sst>
 </file>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -508,7 +508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -520,24 +520,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -566,24 +566,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
